--- a/Hardware/BAT_Materialliste.xlsx
+++ b/Hardware/BAT_Materialliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268752A-7864-4417-A18A-3CF214B9B168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC60092-F30D-429C-A599-E95AD784764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Hersteller</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,6 +669,9 @@
       </c>
       <c r="E4">
         <v>4.5890000000000004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">

--- a/Hardware/BAT_Materialliste.xlsx
+++ b/Hardware/BAT_Materialliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC60092-F30D-429C-A599-E95AD784764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C13D70-AE4F-4AA0-BFBE-675DF99C2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Hersteller</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Preis / Stk</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>CHF</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>LED RED CLEAR 2SMD</t>
   </si>
   <si>
-    <t>https://www.digikey.de/de/products/detail/sunled/XZCM2CRK53WA-8VF/10449794</t>
-  </si>
-  <si>
-    <t>GCD</t>
-  </si>
-  <si>
     <t xml:space="preserve">USB4105-GF-A-060 </t>
   </si>
   <si>
@@ -222,6 +213,48 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>640-USB4125-GF-A</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>USB-C Buchse 6 Pin TOP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ch/ProductDetail/GCT/USB4125-GF-A?qs=KUoIvG%2F9IlaIQ4zBJ6gLeA%3D%3D</t>
+  </si>
+  <si>
+    <t>SSM3J334R,LF</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ch/ProductDetail/Toshiba/SSM3J334RLF?qs=PiFplXvYe5VBSYhr6TJz8A%3D%3D</t>
+  </si>
+  <si>
+    <t>Preis / 100</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/sunled/XZCM2CRK53WA-8VF/10449794</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PCB inkl. Versand</t>
+  </si>
+  <si>
+    <t>https://cart.jlcpcb.com/quote?orderType=1&amp;stencilLayer=2&amp;stencilWidth=40&amp;stencilLength=40&amp;stencilCounts=100</t>
   </si>
 </sst>
 </file>
@@ -262,7 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,18 +313,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -573,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,9 +622,10 @@
     <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,298 +642,451 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.77</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>4.5890000000000004</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>4.085</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6">
+        <v>0.31</v>
+      </c>
+      <c r="F6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0.31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7">
+        <v>1.87</v>
+      </c>
+      <c r="F7">
+        <v>1.35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>1.87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7">
         <f>0.49</f>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F8" s="7">
+        <v>0.2072</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E10">
+        <v>0.61</v>
+      </c>
+      <c r="F10">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
+      <c r="F11">
+        <v>1.26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>8.44</v>
+      </c>
+      <c r="F13">
+        <v>6.33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>1.55</v>
+      </c>
+      <c r="F14">
+        <v>1.05</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>0.61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>1.8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <f>SUM(E2:E16)</f>
+        <v>24.282000000000004</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM(F2:F16)</f>
+        <v>17.278200000000002</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>8.44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13">
-        <v>1.55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E2:E13)</f>
-        <v>22.388999999999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
+      <c r="G19">
         <v>8.98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{BE553334-B7A5-45D9-80C6-B18C7220B901}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{50FBA015-C5FE-4144-A5C8-E41F34A8BA24}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{51D186FE-80E0-4C45-AD3F-7670F86BF3B7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{FEA47AB7-733D-44C4-A123-AB613193E1DA}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{1E158740-DEC8-46D1-AE6C-C578D03CB782}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{03C31914-A94A-46E4-9B9A-44869A5172F0}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{B64412BB-5BEA-4CB9-9E1E-50FA6F65CFC6}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{5F0D150F-5BD2-4711-A27F-0143B6B22221}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{0B931868-8580-4FFE-B12C-7DAE0173EF9E}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{BE553334-B7A5-45D9-80C6-B18C7220B901}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{50FBA015-C5FE-4144-A5C8-E41F34A8BA24}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{51D186FE-80E0-4C45-AD3F-7670F86BF3B7}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{FEA47AB7-733D-44C4-A123-AB613193E1DA}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{1E158740-DEC8-46D1-AE6C-C578D03CB782}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{03C31914-A94A-46E4-9B9A-44869A5172F0}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{B64412BB-5BEA-4CB9-9E1E-50FA6F65CFC6}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{5F0D150F-5BD2-4711-A27F-0143B6B22221}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{0B931868-8580-4FFE-B12C-7DAE0173EF9E}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{FA54BBF1-3011-4DBA-A192-2FFAC1898BB5}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{1FCFA5B4-5953-4A98-B734-C9A17B8CB546}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{D74BA4CE-D13C-4087-8771-92C92AAFE418}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{53B6067D-6DCE-4ED5-BD19-A4933D960BF5}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{29E476E9-D21A-4120-A952-9D024CFE267D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
 </worksheet>
 </file>